--- a/Team-Data/2013-14/2-1-2013-14.xlsx
+++ b/Team-Data/2013-14/2-1-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>0.543</v>
+        <v>0.533</v>
       </c>
       <c r="H2" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J2" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K2" t="n">
         <v>0.462</v>
@@ -699,70 +766,70 @@
         <v>0.372</v>
       </c>
       <c r="O2" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.785</v>
+        <v>0.783</v>
       </c>
       <c r="R2" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="V2" t="n">
         <v>15.4</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X2" t="n">
         <v>4.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" t="n">
         <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -771,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>6</v>
@@ -786,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="AR2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
         <v>17</v>
@@ -798,22 +865,22 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-4.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
@@ -959,10 +1026,10 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -977,22 +1044,22 @@
         <v>17</v>
       </c>
       <c r="AU3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV3" t="n">
         <v>26</v>
       </c>
       <c r="AW3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>28</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -1030,22 +1097,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>0.444</v>
+        <v>0.455</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J4" t="n">
         <v>78.3</v>
@@ -1057,10 +1124,10 @@
         <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O4" t="n">
         <v>18.8</v>
@@ -1069,25 +1136,25 @@
         <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.767</v>
+        <v>0.764</v>
       </c>
       <c r="R4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="T4" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W4" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
         <v>4.1</v>
@@ -1096,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
         <v>21.1</v>
@@ -1105,10 +1172,10 @@
         <v>97.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1132,13 +1199,13 @@
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1147,34 +1214,34 @@
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS4" t="n">
         <v>26</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.429</v>
+        <v>0.438</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1236,10 +1303,10 @@
         <v>0.434</v>
       </c>
       <c r="L5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N5" t="n">
         <v>0.347</v>
@@ -1248,25 +1315,25 @@
         <v>18.3</v>
       </c>
       <c r="P5" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S5" t="n">
         <v>32.9</v>
       </c>
       <c r="T5" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
         <v>20.4</v>
       </c>
       <c r="V5" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W5" t="n">
         <v>6.2</v>
@@ -1287,7 +1354,7 @@
         <v>94.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
         <v>2</v>
@@ -1296,10 +1363,10 @@
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>14</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
         <v>10</v>
@@ -1329,10 +1396,10 @@
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS5" t="n">
         <v>9</v>
@@ -1344,7 +1411,7 @@
         <v>22</v>
       </c>
       <c r="AV5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW5" t="n">
         <v>29</v>
@@ -1353,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1365,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -1394,82 +1461,82 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
         <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.511</v>
       </c>
       <c r="H6" t="n">
         <v>48.9</v>
       </c>
       <c r="I6" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
       <c r="L6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.339</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P6" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.768</v>
+        <v>0.771</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T6" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U6" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V6" t="n">
         <v>15.6</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z6" t="n">
         <v>19.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.5</v>
+        <v>92.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AD6" t="n">
         <v>21</v>
@@ -1496,7 +1563,7 @@
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>27</v>
@@ -1505,31 +1572,31 @@
         <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX6" t="n">
         <v>8</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>0.34</v>
+        <v>0.348</v>
       </c>
       <c r="H7" t="n">
         <v>48.9</v>
@@ -1603,31 +1670,31 @@
         <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O7" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P7" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R7" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>43.9</v>
+        <v>44.2</v>
       </c>
       <c r="U7" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V7" t="n">
         <v>14.7</v>
@@ -1642,19 +1709,19 @@
         <v>6.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AB7" t="n">
         <v>95.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.9</v>
+        <v>-5.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1681,16 +1748,16 @@
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>22</v>
@@ -1699,13 +1766,13 @@
         <v>5</v>
       </c>
       <c r="AS7" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AT7" t="n">
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1714,19 +1781,19 @@
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
         <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1845,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>28</v>
@@ -1860,19 +1927,19 @@
         <v>4</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT8" t="n">
         <v>28</v>
@@ -1893,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="AW8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -2018,22 +2085,22 @@
         <v>0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>6</v>
@@ -2042,7 +2109,7 @@
         <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2051,16 +2118,16 @@
         <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS9" t="n">
         <v>5</v>
@@ -2069,7 +2136,7 @@
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
         <v>16</v>
@@ -2081,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
         <v>29</v>
@@ -2093,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
         <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.413</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J10" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.447</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M10" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.306</v>
+        <v>0.307</v>
       </c>
       <c r="O10" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P10" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.663</v>
+        <v>0.665</v>
       </c>
       <c r="R10" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>45</v>
+        <v>44.7</v>
       </c>
       <c r="U10" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V10" t="n">
         <v>15.4</v>
@@ -2182,34 +2249,34 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z10" t="n">
         <v>20.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.7</v>
+        <v>-3.1</v>
       </c>
       <c r="AD10" t="n">
         <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
@@ -2224,7 +2291,7 @@
         <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
@@ -2245,16 +2312,16 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24</v>
       </c>
-      <c r="AT10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>23</v>
-      </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2263,19 +2330,19 @@
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2406,7 +2473,7 @@
         <v>8</v>
       </c>
       <c r="AL11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2448,7 +2515,7 @@
         <v>12</v>
       </c>
       <c r="AZ11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA11" t="n">
         <v>20</v>
@@ -2457,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
         <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.653</v>
+        <v>0.646</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J12" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K12" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L12" t="n">
         <v>9</v>
@@ -2516,13 +2583,13 @@
         <v>26.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O12" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P12" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="Q12" t="n">
         <v>0.6860000000000001</v>
@@ -2546,22 +2613,22 @@
         <v>7.3</v>
       </c>
       <c r="X12" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y12" t="n">
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
@@ -2576,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>18</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2615,7 +2682,7 @@
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2630,7 +2697,7 @@
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -2668,61 +2735,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="n">
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>0.783</v>
+        <v>0.778</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O13" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="R13" t="n">
         <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="T13" t="n">
         <v>45.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V13" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W13" t="n">
         <v>7.1</v>
@@ -2731,19 +2798,19 @@
         <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z13" t="n">
         <v>20.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>21</v>
@@ -2755,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
@@ -2767,22 +2834,22 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
         <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
@@ -2800,7 +2867,7 @@
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2812,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.68</v>
+        <v>0.673</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,37 +2935,37 @@
         <v>38.3</v>
       </c>
       <c r="J14" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.728</v>
+        <v>0.73</v>
       </c>
       <c r="R14" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S14" t="n">
         <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
@@ -2919,13 +2986,13 @@
         <v>21.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2943,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2952,13 +3019,13 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AR14" t="n">
         <v>22</v>
@@ -2976,7 +3043,7 @@
         <v>14</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2985,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX14" t="n">
         <v>19</v>
@@ -3000,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -3110,28 +3177,28 @@
         <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3149,7 +3216,7 @@
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
@@ -3161,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV15" t="n">
         <v>18</v>
@@ -3170,16 +3237,16 @@
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
         <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,52 +3299,52 @@
         <v>37.7</v>
       </c>
       <c r="J16" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
         <v>15.4</v>
       </c>
       <c r="P16" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q16" t="n">
         <v>0.747</v>
       </c>
       <c r="R16" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S16" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T16" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U16" t="n">
         <v>21.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W16" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
         <v>4.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z16" t="n">
         <v>19.6</v>
@@ -3286,10 +3353,10 @@
         <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD16" t="n">
         <v>21</v>
@@ -3301,7 +3368,7 @@
         <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>15</v>
@@ -3310,7 +3377,7 @@
         <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
         <v>10</v>
@@ -3322,10 +3389,10 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP16" t="n">
         <v>27</v>
@@ -3334,13 +3401,13 @@
         <v>21</v>
       </c>
       <c r="AR16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS16" t="n">
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
         <v>16</v>
@@ -3361,13 +3428,13 @@
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -3396,19 +3463,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
         <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0.717</v>
+        <v>0.711</v>
       </c>
       <c r="H17" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I17" t="n">
         <v>39.1</v>
@@ -3417,7 +3484,7 @@
         <v>76.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.51</v>
+        <v>0.509</v>
       </c>
       <c r="L17" t="n">
         <v>8</v>
@@ -3429,31 +3496,31 @@
         <v>0.37</v>
       </c>
       <c r="O17" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P17" t="n">
         <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R17" t="n">
         <v>7.2</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T17" t="n">
         <v>36.8</v>
       </c>
       <c r="U17" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="V17" t="n">
         <v>15.2</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X17" t="n">
         <v>4.4</v>
@@ -3471,7 +3538,7 @@
         <v>104.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AD17" t="n">
         <v>21</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM17" t="n">
         <v>14</v>
@@ -3513,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,13 +3592,13 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX17" t="n">
         <v>22</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
         <v>8</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.17</v>
+        <v>0.174</v>
       </c>
       <c r="H18" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I18" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="J18" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
@@ -3608,16 +3675,16 @@
         <v>20.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R18" t="n">
         <v>11.4</v>
@@ -3626,10 +3693,10 @@
         <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V18" t="n">
         <v>15.6</v>
@@ -3638,7 +3705,7 @@
         <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y18" t="n">
         <v>5.2</v>
@@ -3656,7 +3723,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3686,16 +3753,16 @@
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
         <v>14</v>
@@ -3710,10 +3777,10 @@
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX18" t="n">
         <v>6</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -3760,46 +3827,46 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="n">
         <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>0.489</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J19" t="n">
-        <v>88.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="K19" t="n">
         <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M19" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O19" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="P19" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R19" t="n">
         <v>13</v>
@@ -3823,31 +3890,31 @@
         <v>3.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>22</v>
@@ -3856,7 +3923,7 @@
         <v>9</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3868,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3880,16 +3947,16 @@
         <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV19" t="n">
         <v>6</v>
@@ -3910,10 +3977,10 @@
         <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
         <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>0.435</v>
+        <v>0.422</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3966,19 +4033,19 @@
         <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O20" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P20" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="Q20" t="n">
         <v>0.768</v>
@@ -3987,64 +4054,64 @@
         <v>12.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W20" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X20" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA20" t="n">
         <v>20.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="AD20" t="n">
         <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
         <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
@@ -4053,25 +4120,25 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP20" t="n">
         <v>15</v>
       </c>
-      <c r="AP20" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
         <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4092,10 +4159,10 @@
         <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.404</v>
+        <v>0.413</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4142,49 +4209,49 @@
         <v>36.6</v>
       </c>
       <c r="J21" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L21" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="N21" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O21" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="P21" t="n">
         <v>19.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.753</v>
+        <v>0.757</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="U21" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V21" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W21" t="n">
         <v>7.8</v>
       </c>
       <c r="X21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y21" t="n">
         <v>3.7</v>
@@ -4196,22 +4263,22 @@
         <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.1</v>
+        <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG21" t="n">
         <v>21</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>22</v>
       </c>
       <c r="AH21" t="n">
         <v>12</v>
@@ -4220,10 +4287,10 @@
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4232,16 +4299,16 @@
         <v>7</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4253,10 +4320,10 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21" t="n">
         <v>13</v>
@@ -4268,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA21" t="n">
         <v>22</v>
@@ -4277,7 +4344,7 @@
         <v>22</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -4306,46 +4373,46 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.776</v>
+        <v>0.792</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="J22" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.356</v>
+        <v>0.36</v>
       </c>
       <c r="O22" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.805</v>
+        <v>0.804</v>
       </c>
       <c r="R22" t="n">
         <v>11.2</v>
@@ -4360,13 +4427,13 @@
         <v>21.6</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y22" t="n">
         <v>3.8</v>
@@ -4378,10 +4445,10 @@
         <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.4</v>
+        <v>105.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>2</v>
@@ -4390,10 +4457,10 @@
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
         <v>25</v>
@@ -4402,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4435,13 +4502,13 @@
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
         <v>27</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4450,13 +4517,13 @@
         <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,16 +4645,16 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>19</v>
@@ -4605,10 +4672,10 @@
         <v>20</v>
       </c>
       <c r="AQ23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
@@ -4623,16 +4690,16 @@
         <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" t="n">
-        <v>0.313</v>
+        <v>0.319</v>
       </c>
       <c r="H24" t="n">
         <v>48.7</v>
@@ -4688,19 +4755,19 @@
         <v>38.8</v>
       </c>
       <c r="J24" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L24" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M24" t="n">
         <v>21.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.314</v>
+        <v>0.316</v>
       </c>
       <c r="O24" t="n">
         <v>16.7</v>
@@ -4709,19 +4776,19 @@
         <v>23.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.712</v>
+        <v>0.714</v>
       </c>
       <c r="R24" t="n">
         <v>11.9</v>
       </c>
       <c r="S24" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T24" t="n">
         <v>44.7</v>
       </c>
       <c r="U24" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="V24" t="n">
         <v>17.2</v>
@@ -4733,22 +4800,22 @@
         <v>4.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA24" t="n">
         <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.9</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>26</v>
@@ -4760,13 +4827,13 @@
         <v>27</v>
       </c>
       <c r="AH24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI24" t="n">
         <v>7</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK24" t="n">
         <v>23</v>
@@ -4784,28 +4851,28 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS24" t="n">
         <v>10</v>
       </c>
-      <c r="AS24" t="n">
-        <v>11</v>
-      </c>
       <c r="AT24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU24" t="n">
         <v>10</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>12</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX24" t="n">
         <v>24</v>
@@ -4814,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.617</v>
+        <v>0.609</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,7 +4937,7 @@
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K25" t="n">
         <v>0.458</v>
@@ -4885,55 +4952,55 @@
         <v>0.371</v>
       </c>
       <c r="O25" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P25" t="n">
         <v>23.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R25" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T25" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U25" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="V25" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z25" t="n">
         <v>21.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB25" t="n">
         <v>104.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4954,31 +5021,31 @@
         <v>9</v>
       </c>
       <c r="AL25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP25" t="n">
         <v>11</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>30</v>
@@ -4999,7 +5066,7 @@
         <v>22</v>
       </c>
       <c r="BA25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="n">
         <v>13</v>
       </c>
       <c r="G26" t="n">
-        <v>0.723</v>
+        <v>0.717</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="J26" t="n">
-        <v>88.2</v>
+        <v>88.5</v>
       </c>
       <c r="K26" t="n">
         <v>0.453</v>
@@ -5061,31 +5128,31 @@
         <v>9.6</v>
       </c>
       <c r="M26" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O26" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.82</v>
+        <v>0.821</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T26" t="n">
-        <v>46.5</v>
+        <v>46.6</v>
       </c>
       <c r="U26" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="V26" t="n">
         <v>13.6</v>
@@ -5094,25 +5161,25 @@
         <v>5.7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5130,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
@@ -5139,16 +5206,16 @@
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5181,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="BA26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -5216,34 +5283,34 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="n">
-        <v>0.319</v>
+        <v>0.326</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J27" t="n">
         <v>83.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L27" t="n">
         <v>6.9</v>
       </c>
       <c r="M27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
         <v>0.345</v>
@@ -5258,19 +5325,19 @@
         <v>0.772</v>
       </c>
       <c r="R27" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T27" t="n">
         <v>43.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
         <v>7.4</v>
@@ -5279,28 +5346,28 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="AC27" t="n">
         <v>-2.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
@@ -5333,13 +5400,13 @@
         <v>6</v>
       </c>
       <c r="AQ27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR27" t="n">
         <v>7</v>
       </c>
-      <c r="AR27" t="n">
-        <v>9</v>
-      </c>
       <c r="AS27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT27" t="n">
         <v>12</v>
@@ -5348,7 +5415,7 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW27" t="n">
         <v>18</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -5398,64 +5465,64 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="n">
         <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.723</v>
+        <v>0.717</v>
       </c>
       <c r="H28" t="n">
         <v>48.1</v>
       </c>
       <c r="I28" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K28" t="n">
         <v>0.492</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.399</v>
+        <v>0.402</v>
       </c>
       <c r="O28" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P28" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.766</v>
+        <v>0.769</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S28" t="n">
         <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U28" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>4.8</v>
@@ -5464,19 +5531,19 @@
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.8</v>
+        <v>104</v>
       </c>
       <c r="AC28" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5515,10 +5582,10 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
@@ -5536,7 +5603,7 @@
         <v>16</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5545,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -5580,37 +5647,37 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" t="n">
         <v>25</v>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>0.532</v>
+        <v>0.543</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K29" t="n">
         <v>0.438</v>
       </c>
       <c r="L29" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M29" t="n">
         <v>22.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O29" t="n">
         <v>18.8</v>
@@ -5619,55 +5686,55 @@
         <v>24.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.771</v>
+        <v>0.773</v>
       </c>
       <c r="R29" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S29" t="n">
         <v>31.6</v>
       </c>
       <c r="T29" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U29" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V29" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>4.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA29" t="n">
         <v>21.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG29" t="n">
         <v>12</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>10</v>
@@ -5688,34 +5755,34 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP29" t="n">
         <v>10</v>
       </c>
       <c r="AQ29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR29" t="n">
         <v>8</v>
       </c>
-      <c r="AR29" t="n">
-        <v>11</v>
-      </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
         <v>21</v>
@@ -5724,7 +5791,7 @@
         <v>15</v>
       </c>
       <c r="AZ29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -5762,49 +5829,49 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>0.34</v>
+        <v>0.348</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J30" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L30" t="n">
         <v>6.6</v>
       </c>
       <c r="M30" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O30" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P30" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R30" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
         <v>30.6</v>
@@ -5813,7 +5880,7 @@
         <v>41.6</v>
       </c>
       <c r="U30" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V30" t="n">
         <v>14.9</v>
@@ -5828,19 +5895,19 @@
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
         <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
@@ -5861,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5876,13 +5943,13 @@
         <v>22</v>
       </c>
       <c r="AP30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>19</v>
       </c>
-      <c r="AQ30" t="n">
-        <v>20</v>
-      </c>
       <c r="AR30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5894,13 +5961,13 @@
         <v>26</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5909,7 +5976,7 @@
         <v>18</v>
       </c>
       <c r="BA30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" t="n">
         <v>23</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.489</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
       </c>
       <c r="I31" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J31" t="n">
-        <v>84.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K31" t="n">
         <v>0.449</v>
@@ -5974,16 +6041,16 @@
         <v>20.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R31" t="n">
         <v>11</v>
@@ -5995,19 +6062,19 @@
         <v>43</v>
       </c>
       <c r="U31" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
         <v>8.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z31" t="n">
         <v>20.6</v>
@@ -6016,22 +6083,22 @@
         <v>19.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="AD31" t="n">
         <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
@@ -6040,7 +6107,7 @@
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -6055,34 +6122,34 @@
         <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>15</v>
       </c>
       <c r="AT31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6091,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-1-2013-14</t>
+          <t>2014-02-01</t>
         </is>
       </c>
     </row>
